--- a/SchedulingData/dynamic16/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,192 +462,192 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>240.34</v>
+        <v>206.72</v>
       </c>
       <c r="D2" t="n">
-        <v>313.44</v>
+        <v>276.14</v>
       </c>
       <c r="E2" t="n">
-        <v>10.836</v>
+        <v>15.356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>313.44</v>
+        <v>250.58</v>
       </c>
       <c r="D3" t="n">
-        <v>372.92</v>
+        <v>308.9</v>
       </c>
       <c r="E3" t="n">
-        <v>7.028</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>275.56</v>
+        <v>232.7</v>
       </c>
       <c r="D4" t="n">
-        <v>326.68</v>
+        <v>288.8</v>
       </c>
       <c r="E4" t="n">
-        <v>8.952</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>247.44</v>
+        <v>230.94</v>
       </c>
       <c r="D5" t="n">
-        <v>302.14</v>
+        <v>288.14</v>
       </c>
       <c r="E5" t="n">
-        <v>11.976</v>
+        <v>11.356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>302.14</v>
+        <v>288.8</v>
       </c>
       <c r="D6" t="n">
-        <v>351.06</v>
+        <v>350.1</v>
       </c>
       <c r="E6" t="n">
-        <v>9.204000000000001</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>271.68</v>
+        <v>288.14</v>
       </c>
       <c r="D7" t="n">
-        <v>319.22</v>
+        <v>349.8</v>
       </c>
       <c r="E7" t="n">
-        <v>11.268</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>326.68</v>
+        <v>265.34</v>
       </c>
       <c r="D8" t="n">
-        <v>392.34</v>
+        <v>322.2</v>
       </c>
       <c r="E8" t="n">
-        <v>5.496</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>228.9</v>
+        <v>236.12</v>
       </c>
       <c r="D9" t="n">
-        <v>311.38</v>
+        <v>281.22</v>
       </c>
       <c r="E9" t="n">
-        <v>10.512</v>
+        <v>9.568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>311.38</v>
+        <v>308.9</v>
       </c>
       <c r="D10" t="n">
-        <v>354.08</v>
+        <v>379.44</v>
       </c>
       <c r="E10" t="n">
-        <v>7.872</v>
+        <v>5.876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>351.06</v>
+        <v>322.2</v>
       </c>
       <c r="D11" t="n">
-        <v>420.38</v>
+        <v>380.52</v>
       </c>
       <c r="E11" t="n">
-        <v>4.892</v>
+        <v>8.708</v>
       </c>
     </row>
     <row r="12">
@@ -656,128 +656,128 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>319.22</v>
+        <v>281.22</v>
       </c>
       <c r="D12" t="n">
-        <v>372.54</v>
+        <v>355.78</v>
       </c>
       <c r="E12" t="n">
-        <v>8.055999999999999</v>
+        <v>5.252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>392.34</v>
+        <v>380.52</v>
       </c>
       <c r="D13" t="n">
-        <v>447.52</v>
+        <v>436.18</v>
       </c>
       <c r="E13" t="n">
-        <v>1.608</v>
+        <v>5.252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>447.52</v>
+        <v>276.14</v>
       </c>
       <c r="D14" t="n">
-        <v>530.9</v>
+        <v>341.12</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>11.468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>372.54</v>
+        <v>379.44</v>
       </c>
       <c r="D15" t="n">
-        <v>421.34</v>
+        <v>475.44</v>
       </c>
       <c r="E15" t="n">
-        <v>4.816</v>
+        <v>2.356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>530.9</v>
+        <v>436.18</v>
       </c>
       <c r="D16" t="n">
-        <v>573.9</v>
+        <v>494.58</v>
       </c>
       <c r="E16" t="n">
-        <v>26.4</v>
+        <v>2.532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>421.34</v>
+        <v>341.12</v>
       </c>
       <c r="D17" t="n">
-        <v>524.16</v>
+        <v>386.02</v>
       </c>
       <c r="E17" t="n">
-        <v>1.604</v>
+        <v>8.108000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>524.16</v>
+        <v>475.44</v>
       </c>
       <c r="D18" t="n">
-        <v>597.95</v>
+        <v>542.73</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -785,135 +785,135 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>222.58</v>
+        <v>542.73</v>
       </c>
       <c r="D19" t="n">
-        <v>269.58</v>
+        <v>607.1900000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.212</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>372.92</v>
+        <v>494.58</v>
       </c>
       <c r="D20" t="n">
-        <v>419.62</v>
+        <v>561.42</v>
       </c>
       <c r="E20" t="n">
-        <v>3.488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>420.38</v>
+        <v>561.42</v>
       </c>
       <c r="D21" t="n">
-        <v>487.58</v>
+        <v>648.28</v>
       </c>
       <c r="E21" t="n">
-        <v>2.252</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>354.08</v>
+        <v>386.02</v>
       </c>
       <c r="D22" t="n">
-        <v>396.58</v>
+        <v>447.52</v>
       </c>
       <c r="E22" t="n">
-        <v>5.752</v>
+        <v>4.088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>597.95</v>
+        <v>350.1</v>
       </c>
       <c r="D23" t="n">
-        <v>689.17</v>
+        <v>408.2</v>
       </c>
       <c r="E23" t="n">
-        <v>25.528</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>396.58</v>
+        <v>349.8</v>
       </c>
       <c r="D24" t="n">
-        <v>448.08</v>
+        <v>413.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.732</v>
+        <v>4.576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>448.08</v>
+        <v>648.28</v>
       </c>
       <c r="D25" t="n">
-        <v>531.22</v>
+        <v>707.38</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>22.644</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>419.62</v>
+        <v>413.24</v>
       </c>
       <c r="D26" t="n">
-        <v>464.8</v>
+        <v>452.2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="27">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>464.8</v>
+        <v>452.2</v>
       </c>
       <c r="D27" t="n">
-        <v>541.4</v>
+        <v>525.36</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -956,59 +956,59 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>487.58</v>
+        <v>408.2</v>
       </c>
       <c r="D28" t="n">
-        <v>584.38</v>
+        <v>476.2</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>584.38</v>
+        <v>476.2</v>
       </c>
       <c r="D29" t="n">
-        <v>659.24</v>
+        <v>551.28</v>
       </c>
       <c r="E29" t="n">
-        <v>25.684</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>689.17</v>
+        <v>525.36</v>
       </c>
       <c r="D30" t="n">
-        <v>751.83</v>
+        <v>595.26</v>
       </c>
       <c r="E30" t="n">
-        <v>22.392</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>531.22</v>
+        <v>551.28</v>
       </c>
       <c r="D31" t="n">
-        <v>575.58</v>
+        <v>599.6799999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>27.244</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>269.58</v>
+        <v>355.78</v>
       </c>
       <c r="D32" t="n">
-        <v>311.98</v>
+        <v>397.06</v>
       </c>
       <c r="E32" t="n">
-        <v>9.612</v>
+        <v>2.744</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>575.58</v>
+        <v>599.6799999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>635.6799999999999</v>
+        <v>651.46</v>
       </c>
       <c r="E33" t="n">
-        <v>23.344</v>
+        <v>23.292</v>
       </c>
     </row>
     <row r="34">
@@ -1074,207 +1074,207 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>659.24</v>
+        <v>447.52</v>
       </c>
       <c r="D34" t="n">
-        <v>720.64</v>
+        <v>490.56</v>
       </c>
       <c r="E34" t="n">
-        <v>23.164</v>
+        <v>1.404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>541.4</v>
+        <v>490.56</v>
       </c>
       <c r="D35" t="n">
-        <v>620.8</v>
+        <v>584.15</v>
       </c>
       <c r="E35" t="n">
-        <v>26.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>573.9</v>
+        <v>397.06</v>
       </c>
       <c r="D36" t="n">
-        <v>627.76</v>
+        <v>473.47</v>
       </c>
       <c r="E36" t="n">
-        <v>22.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>311.98</v>
+        <v>473.47</v>
       </c>
       <c r="D37" t="n">
-        <v>373.64</v>
+        <v>563.77</v>
       </c>
       <c r="E37" t="n">
-        <v>6.576</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>751.83</v>
+        <v>607.1900000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>798.53</v>
+        <v>661.11</v>
       </c>
       <c r="E38" t="n">
-        <v>18.852</v>
+        <v>22.972</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>620.8</v>
+        <v>661.11</v>
       </c>
       <c r="D39" t="n">
-        <v>661.84</v>
+        <v>708.8099999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>23.736</v>
+        <v>20.332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>627.76</v>
+        <v>584.15</v>
       </c>
       <c r="D40" t="n">
-        <v>687.86</v>
+        <v>634.83</v>
       </c>
       <c r="E40" t="n">
-        <v>18.764</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>373.64</v>
+        <v>708.8099999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>447.84</v>
+        <v>751.3099999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>3.276</v>
+        <v>18.212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>687.86</v>
+        <v>707.38</v>
       </c>
       <c r="D42" t="n">
-        <v>757.76</v>
+        <v>753.8200000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>15.384</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>661.84</v>
+        <v>563.77</v>
       </c>
       <c r="D43" t="n">
-        <v>706.74</v>
+        <v>640.47</v>
       </c>
       <c r="E43" t="n">
-        <v>20.876</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>757.76</v>
+        <v>595.26</v>
       </c>
       <c r="D44" t="n">
-        <v>794.84</v>
+        <v>656.26</v>
       </c>
       <c r="E44" t="n">
-        <v>12.316</v>
+        <v>24.62</v>
       </c>
     </row>
     <row r="45">
@@ -1283,36 +1283,74 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>706.74</v>
+        <v>656.26</v>
       </c>
       <c r="D45" t="n">
-        <v>777.62</v>
+        <v>717.86</v>
       </c>
       <c r="E45" t="n">
-        <v>18.368</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>pond18</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>640.47</v>
+      </c>
+      <c r="D46" t="n">
+        <v>710.91</v>
+      </c>
+      <c r="E46" t="n">
+        <v>19.536</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>1</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pond34</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>720.64</v>
-      </c>
-      <c r="D46" t="n">
-        <v>778.38</v>
-      </c>
-      <c r="E46" t="n">
-        <v>20.48</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond24</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>634.83</v>
+      </c>
+      <c r="D47" t="n">
+        <v>684.83</v>
+      </c>
+      <c r="E47" t="n">
+        <v>23.232</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>pond42</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>651.46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>703.92</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20.156</v>
       </c>
     </row>
   </sheetData>
